--- a/src/report/assets/report.xlsx
+++ b/src/report/assets/report.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
-  <si>
-    <t>Relatório das Ultimas 24 horas 2022-09-04 22:40:14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="463">
+  <si>
+    <t>Relatório das Ultimas 24 horas 2022-09-10 10:23:18</t>
   </si>
   <si>
     <t>Task Code</t>
@@ -80,6 +80,1329 @@
   </si>
   <si>
     <t>2022-09-04 22:37:25</t>
+  </si>
+  <si>
+    <t>Could not fetch the Interest Rates, the url is https://www.bancomoc.mz/fm_MercadosMMI.aspx?id=5</t>
+  </si>
+  <si>
+    <t>2022-09-05 13:53:27</t>
+  </si>
+  <si>
+    <t>2022-09-05 13:54:33</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:11:57</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:29:50</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:30:49</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:40:18</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:41:54</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:43:50</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:49:03</t>
+  </si>
+  <si>
+    <t>2022-09-05 14:49:40</t>
+  </si>
+  <si>
+    <t>2022-09-05 16:39:51</t>
+  </si>
+  <si>
+    <t>2022-09-05 16:41:19</t>
+  </si>
+  <si>
+    <t>2022-09-05 16:49:24</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:02:15</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:03:46</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:04:44</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:05:53</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:06:28</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:07:38</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:08:14</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:10:34</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:14:15</t>
+  </si>
+  <si>
+    <t>2022-09-05 17:16:25</t>
+  </si>
+  <si>
+    <t>Coould not fetch interest Rates. Invalid date 2022-09-05, valid date format exemple: 05/09/2022</t>
+  </si>
+  <si>
+    <t>2022-09-05 20:59:18</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:00:23</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:01:06</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:10:52</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:14:41</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:14:53</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:18:02</t>
+  </si>
+  <si>
+    <t>InterestRates</t>
+  </si>
+  <si>
+    <t>Daily Interest Rates update</t>
+  </si>
+  <si>
+    <t>The interest Rates has a format error</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:31:29</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:32:08</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:32:48</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:34:15</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:37:12</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:38:11</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:42:04</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:43:47</t>
+  </si>
+  <si>
+    <t>Was not able to save Interest Rates, 2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:44:26</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:45:16</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:46:29</t>
+  </si>
+  <si>
+    <t>2022-09-05 22:51:08</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:23:31</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:29:13</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:32:48</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:36:57</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:37:18</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:37:36</t>
+  </si>
+  <si>
+    <t>2022-09-05 23:40:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 10:43:11</t>
+  </si>
+  <si>
+    <t>2022-09-06 10:57:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 10:59:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 11:42:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 11:43:27</t>
+  </si>
+  <si>
+    <t>2022-09-06 11:46:45</t>
+  </si>
+  <si>
+    <t>2022-09-06 11:53:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 11:54:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:15:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:15:41</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:17:15</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:17:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:19:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:20:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:20:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:20:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:25:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:26:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:27:24</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:27:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:28:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:28:30</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:32:02</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:53:02</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:53:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:55:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 12:59:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:01:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:13:43</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:14:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:19:58</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:36:27</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:36:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:39:40</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:40:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:45:28</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:45:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:46:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:47:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:47:52</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:48:42</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:49:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:49:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:50:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:51:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:52:38</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:53:57</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:55:28</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:55:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:56:30</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:57:04</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:57:35</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:58:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:58:45</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:59:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 13:59:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:00:18</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:00:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:01:19</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:01:48</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:02:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:02:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:03:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:03:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:04:25</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:05:01</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:05:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:06:04</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:06:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:07:10</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:07:40</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:08:23</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:08:52</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:09:18</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:09:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:10:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:10:49</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:11:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:11:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:12:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:13:05</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:13:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:14:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:14:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:15:10</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:15:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:16:10</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:16:42</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:17:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:17:52</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:18:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:18:58</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:19:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:20:02</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:20:33</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:21:03</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:21:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:22:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:22:38</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:23:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:23:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:24:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:24:37</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:25:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:25:40</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:26:24</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:26:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:27:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:27:58</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:28:42</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:29:13</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:29:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:30:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:30:49</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:31:19</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:31:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:32:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:32:45</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:33:18</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:33:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:34:18</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:34:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:35:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:35:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:36:24</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:36:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:37:23</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:37:52</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:38:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:38:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:39:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:39:54</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:40:23</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:40:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:41:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:41:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:42:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:42:43</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:43:15</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:43:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:44:19</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:44:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:45:22</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:45:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:46:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:47:01</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:47:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:48:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:48:30</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:49:03</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:49:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:50:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:50:37</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:51:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:51:37</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:52:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:52:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:53:12</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:53:44</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:54:20</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:54:57</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:55:33</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:56:05</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:56:37</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:57:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:57:38</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:58:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:58:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:59:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 14:59:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:00:05</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:00:35</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:01:04</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:01:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:02:11</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:02:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:03:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:04:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:05:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:05:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:06:42</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:07:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:08:15</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:09:04</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:09:42</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:10:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:10:54</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:11:28</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:11:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:12:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:13:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:13:36</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:14:13</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:14:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:15:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:15:54</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:16:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:17:04</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:17:38</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:18:13</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:18:44</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:19:18</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:19:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:20:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:20:56</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:21:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:22:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:22:43</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:23:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:23:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:24:25</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:24:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:25:33</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:26:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:26:41</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:27:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:27:52</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:28:23</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:28:56</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:29:33</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:30:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:30:39</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:31:10</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:31:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:48:01</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:48:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:49:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:49:35</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:50:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:51:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:52:02</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:52:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:52:57</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:53:26</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:53:57</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:54:28</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:55:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:55:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:56:51</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:58:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:59:27</t>
+  </si>
+  <si>
+    <t>2022-09-06 15:59:57</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:01:11</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:02:08</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:02:40</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:03:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:06:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:06:35</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:07:07</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:07:38</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:08:09</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:08:41</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:09:13</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:09:45</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:10:17</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:10:47</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:28:53</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:29:11</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:29:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:29:48</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:30:06</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:36:14</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:39:27</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:39:46</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:40:03</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:40:21</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:40:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was not able to save Interest Rates, </t>
+  </si>
+  <si>
+    <t>2022-09-06 16:41:50</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:45:10</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:45:27</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:45:44</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:46:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:48:24</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:48:41</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:48:58</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:50:29</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:50:45</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:50:59</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:52:13</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:52:31</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:52:48</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:55:40</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:55:56</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:56:16</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:56:32</t>
+  </si>
+  <si>
+    <t>2022-09-06 16:56:47</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Could not fetch the exchange Rates, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/nacional</t>
+  </si>
+  <si>
+    <t>2022-09-06 23:26:55</t>
+  </si>
+  <si>
+    <t>2022-09-06 23:36:00</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Update of consumer price Index (CPI)</t>
+  </si>
+  <si>
+    <t>Database failed to get xai-xai CPI</t>
+  </si>
+  <si>
+    <t>2022-09-07 22:25:46</t>
+  </si>
+  <si>
+    <t>The nampula CPI has a format error</t>
+  </si>
+  <si>
+    <t>2022-09-08 00:50:27</t>
+  </si>
+  <si>
+    <t>Database failed to get niassa CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 01:04:08</t>
+  </si>
+  <si>
+    <t>2022-09-08 01:16:25</t>
+  </si>
+  <si>
+    <t>2022-09-08 01:30:59</t>
+  </si>
+  <si>
+    <t>Could not fetch the inhambane CPI, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/inhambane</t>
+  </si>
+  <si>
+    <t>2022-09-08 19:23:22</t>
+  </si>
+  <si>
+    <t>2022-09-08 19:41:32</t>
+  </si>
+  <si>
+    <t>2022-09-08 19:44:02</t>
+  </si>
+  <si>
+    <t>Was not able to  nacional CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:07:42</t>
+  </si>
+  <si>
+    <t>Was not able to  nampula CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:08:31</t>
+  </si>
+  <si>
+    <t>Was not able to  beira CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:09:15</t>
+  </si>
+  <si>
+    <t>Was not able to  maputo CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:10:09</t>
+  </si>
+  <si>
+    <t>Was not able to  quelimane CPI</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:11:32</t>
+  </si>
+  <si>
+    <t>Database failed to get nacional CPI last update date</t>
+  </si>
+  <si>
+    <t>2022-09-08 22:13:38</t>
+  </si>
+  <si>
+    <t>Consumer Price Index update</t>
+  </si>
+  <si>
+    <t>Could not fetch the nacional CPI, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/nacional</t>
+  </si>
+  <si>
+    <t>2022-09-09 14:35:37</t>
+  </si>
+  <si>
+    <t>Could not fetch the nampula CPI, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/nampula</t>
+  </si>
+  <si>
+    <t>2022-09-09 14:35:53</t>
+  </si>
+  <si>
+    <t>Could not fetch the beira CPI, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/beira</t>
+  </si>
+  <si>
+    <t>2022-09-09 14:36:10</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:51:25</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:53:07</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:53:17</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:53:33</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:53:39</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:53:47</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:59:46</t>
+  </si>
+  <si>
+    <t>2022-09-09 16:59:55</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:00:28</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:00:34</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:00:48</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:00:52</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:01</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:05</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:14</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:18</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:28</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:33</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:41</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:46</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:01:59</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:03</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:12</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:16</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:26</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:30</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:39</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:43</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:53</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:02:57</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:10</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:14</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:23</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:27</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:37</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:41</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:50</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:03:54</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:03</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:11</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:20</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:24</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:33</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:38</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:47</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:04:51</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:00</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:04</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:17</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:21</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:31</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:35</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:44</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:48</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:05:57</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:06:01</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:07:22</t>
+  </si>
+  <si>
+    <t>2022-09-09 17:07:33</t>
+  </si>
+  <si>
+    <t>2022-09-10 09:42:08</t>
+  </si>
+  <si>
+    <t>2022-09-10 09:42:25</t>
+  </si>
+  <si>
+    <t>2022-09-10 10:22:28</t>
   </si>
 </sst>
 </file>
@@ -473,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,8 +1987,7291 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
+      </c>
+      <c r="D104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>54</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D118" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>54</v>
+      </c>
+      <c r="D123" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+      <c r="D130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>54</v>
+      </c>
+      <c r="D135" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" t="s">
+        <v>55</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>54</v>
+      </c>
+      <c r="D150" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" t="s">
+        <v>55</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>54</v>
+      </c>
+      <c r="D155" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" t="s">
+        <v>55</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" t="s">
+        <v>55</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" t="s">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>54</v>
+      </c>
+      <c r="D165" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>55</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168" t="s">
+        <v>55</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" t="s">
+        <v>55</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" t="s">
+        <v>55</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" t="s">
+        <v>55</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" t="s">
+        <v>55</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>54</v>
+      </c>
+      <c r="D180" t="s">
+        <v>55</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>54</v>
+      </c>
+      <c r="D186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>54</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" t="s">
+        <v>55</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" t="s">
+        <v>55</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" t="s">
+        <v>55</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" t="s">
+        <v>55</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" t="s">
+        <v>55</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" t="s">
+        <v>55</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" t="s">
+        <v>55</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" t="s">
+        <v>55</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" t="s">
+        <v>55</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" t="s">
+        <v>55</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" t="s">
+        <v>55</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" t="s">
+        <v>55</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" t="s">
+        <v>55</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" t="s">
+        <v>55</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" t="s">
+        <v>55</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" t="s">
+        <v>55</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" t="s">
+        <v>55</v>
+      </c>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" t="s">
+        <v>55</v>
+      </c>
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" t="s">
+        <v>55</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" t="s">
+        <v>55</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" t="s">
+        <v>55</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" t="s">
+        <v>55</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" t="s">
+        <v>55</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" t="s">
+        <v>55</v>
+      </c>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" t="s">
+        <v>55</v>
+      </c>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236" t="s">
+        <v>55</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237" t="s">
+        <v>55</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>54</v>
+      </c>
+      <c r="D238" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>54</v>
+      </c>
+      <c r="D239" t="s">
+        <v>55</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>54</v>
+      </c>
+      <c r="D240" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>54</v>
+      </c>
+      <c r="D241" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" t="s">
+        <v>55</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" t="s">
+        <v>55</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" t="s">
+        <v>55</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" t="s">
+        <v>55</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>55</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248" t="s">
+        <v>55</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" t="s">
+        <v>55</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" t="s">
+        <v>55</v>
+      </c>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>54</v>
+      </c>
+      <c r="D251" t="s">
+        <v>55</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>54</v>
+      </c>
+      <c r="D252" t="s">
+        <v>55</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" t="s">
+        <v>55</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" t="s">
+        <v>55</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" t="s">
+        <v>55</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>54</v>
+      </c>
+      <c r="D256" t="s">
+        <v>55</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>54</v>
+      </c>
+      <c r="D257" t="s">
+        <v>55</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>54</v>
+      </c>
+      <c r="D258" t="s">
+        <v>55</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" t="s">
+        <v>55</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>54</v>
+      </c>
+      <c r="D260" t="s">
+        <v>55</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>54</v>
+      </c>
+      <c r="D261" t="s">
+        <v>55</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>54</v>
+      </c>
+      <c r="D262" t="s">
+        <v>55</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>54</v>
+      </c>
+      <c r="D263" t="s">
+        <v>55</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>54</v>
+      </c>
+      <c r="D264" t="s">
+        <v>55</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" t="s">
+        <v>55</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" t="s">
+        <v>55</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>54</v>
+      </c>
+      <c r="D267" t="s">
+        <v>55</v>
+      </c>
+      <c r="E267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" t="s">
+        <v>55</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+      <c r="D269" t="s">
+        <v>55</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" t="s">
+        <v>55</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>54</v>
+      </c>
+      <c r="D271" t="s">
+        <v>55</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" t="s">
+        <v>55</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" t="s">
+        <v>55</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" t="s">
+        <v>55</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276" t="s">
+        <v>55</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" t="s">
+        <v>55</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>54</v>
+      </c>
+      <c r="D278" t="s">
+        <v>55</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" t="s">
+        <v>55</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>54</v>
+      </c>
+      <c r="D280" t="s">
+        <v>55</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>54</v>
+      </c>
+      <c r="D281" t="s">
+        <v>55</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>54</v>
+      </c>
+      <c r="D282" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>54</v>
+      </c>
+      <c r="D283" t="s">
+        <v>55</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>54</v>
+      </c>
+      <c r="D284" t="s">
+        <v>55</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" t="s">
+        <v>55</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>54</v>
+      </c>
+      <c r="D286" t="s">
+        <v>55</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" t="s">
+        <v>55</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" t="s">
+        <v>55</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7">
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>54</v>
+      </c>
+      <c r="D289" t="s">
+        <v>55</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" t="s">
+        <v>55</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>54</v>
+      </c>
+      <c r="D291" t="s">
+        <v>55</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>54</v>
+      </c>
+      <c r="D292" t="s">
+        <v>55</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>54</v>
+      </c>
+      <c r="D293" t="s">
+        <v>55</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" t="s">
+        <v>55</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7">
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>54</v>
+      </c>
+      <c r="D295" t="s">
+        <v>55</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>54</v>
+      </c>
+      <c r="D296" t="s">
+        <v>55</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>54</v>
+      </c>
+      <c r="D297" t="s">
+        <v>55</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>54</v>
+      </c>
+      <c r="D298" t="s">
+        <v>55</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7">
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" t="s">
+        <v>55</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7">
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>54</v>
+      </c>
+      <c r="D300" t="s">
+        <v>55</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7">
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" t="s">
+        <v>55</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7">
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302" t="s">
+        <v>55</v>
+      </c>
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>54</v>
+      </c>
+      <c r="D303" t="s">
+        <v>55</v>
+      </c>
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7">
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>54</v>
+      </c>
+      <c r="D304" t="s">
+        <v>55</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7">
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" t="s">
+        <v>55</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7">
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" t="s">
+        <v>55</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7">
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" t="s">
+        <v>55</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7">
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308" t="s">
+        <v>55</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7">
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309" t="s">
+        <v>55</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7">
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>54</v>
+      </c>
+      <c r="D310" t="s">
+        <v>55</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7">
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311" t="s">
+        <v>55</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7">
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>54</v>
+      </c>
+      <c r="D312" t="s">
+        <v>55</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7">
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313" t="s">
+        <v>55</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7">
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>54</v>
+      </c>
+      <c r="D314" t="s">
+        <v>55</v>
+      </c>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7">
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>54</v>
+      </c>
+      <c r="D315" t="s">
+        <v>55</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7">
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>54</v>
+      </c>
+      <c r="D316" t="s">
+        <v>55</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" t="s">
+        <v>55</v>
+      </c>
+      <c r="E317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>54</v>
+      </c>
+      <c r="D318" t="s">
+        <v>55</v>
+      </c>
+      <c r="E318" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>54</v>
+      </c>
+      <c r="D319" t="s">
+        <v>55</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>54</v>
+      </c>
+      <c r="D320" t="s">
+        <v>55</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" t="s">
+        <v>55</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7">
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" t="s">
+        <v>55</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7">
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" t="s">
+        <v>55</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7">
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324" t="s">
+        <v>55</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7">
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>54</v>
+      </c>
+      <c r="D325" t="s">
+        <v>55</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7">
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" t="s">
+        <v>55</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7">
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" t="s">
+        <v>55</v>
+      </c>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7">
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" t="s">
+        <v>55</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7">
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>54</v>
+      </c>
+      <c r="D329" t="s">
+        <v>55</v>
+      </c>
+      <c r="E329" t="s">
+        <v>14</v>
+      </c>
+      <c r="F329" t="s">
+        <v>344</v>
+      </c>
+      <c r="G329" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7">
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>54</v>
+      </c>
+      <c r="D330" t="s">
+        <v>55</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7">
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>54</v>
+      </c>
+      <c r="D331" t="s">
+        <v>55</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7">
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>54</v>
+      </c>
+      <c r="D332" t="s">
+        <v>55</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7">
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>54</v>
+      </c>
+      <c r="D333" t="s">
+        <v>55</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7">
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>54</v>
+      </c>
+      <c r="D334" t="s">
+        <v>55</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7">
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>54</v>
+      </c>
+      <c r="D335" t="s">
+        <v>55</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7">
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" t="s">
+        <v>55</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>54</v>
+      </c>
+      <c r="D337" t="s">
+        <v>55</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>54</v>
+      </c>
+      <c r="D338" t="s">
+        <v>55</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>54</v>
+      </c>
+      <c r="D339" t="s">
+        <v>55</v>
+      </c>
+      <c r="E339" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" t="s">
+        <v>55</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7">
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341" t="s">
+        <v>55</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7">
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" t="s">
+        <v>54</v>
+      </c>
+      <c r="D342" t="s">
+        <v>55</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>54</v>
+      </c>
+      <c r="D343" t="s">
+        <v>55</v>
+      </c>
+      <c r="E343" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7">
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>54</v>
+      </c>
+      <c r="D344" t="s">
+        <v>55</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>54</v>
+      </c>
+      <c r="D345" t="s">
+        <v>55</v>
+      </c>
+      <c r="E345" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>54</v>
+      </c>
+      <c r="D346" t="s">
+        <v>55</v>
+      </c>
+      <c r="E346" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>54</v>
+      </c>
+      <c r="D347" t="s">
+        <v>55</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7">
+      <c r="B348" t="s">
+        <v>364</v>
+      </c>
+      <c r="C348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" t="s">
+        <v>365</v>
+      </c>
+      <c r="G348" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" t="s">
+        <v>364</v>
+      </c>
+      <c r="C349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" t="s">
+        <v>365</v>
+      </c>
+      <c r="G349" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="B350" t="s">
+        <v>364</v>
+      </c>
+      <c r="C350" t="s">
+        <v>368</v>
+      </c>
+      <c r="D350" t="s">
+        <v>369</v>
+      </c>
+      <c r="E350" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" t="s">
+        <v>370</v>
+      </c>
+      <c r="G350" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" t="s">
+        <v>14</v>
+      </c>
+      <c r="F351" t="s">
+        <v>372</v>
+      </c>
+      <c r="G351" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="B352" t="s">
+        <v>364</v>
+      </c>
+      <c r="C352" t="s">
+        <v>368</v>
+      </c>
+      <c r="D352" t="s">
+        <v>369</v>
+      </c>
+      <c r="E352" t="s">
+        <v>14</v>
+      </c>
+      <c r="F352" t="s">
+        <v>374</v>
+      </c>
+      <c r="G352" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" t="s">
+        <v>364</v>
+      </c>
+      <c r="C353" t="s">
+        <v>368</v>
+      </c>
+      <c r="D353" t="s">
+        <v>369</v>
+      </c>
+      <c r="E353" t="s">
+        <v>14</v>
+      </c>
+      <c r="F353" t="s">
+        <v>374</v>
+      </c>
+      <c r="G353" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" t="s">
+        <v>364</v>
+      </c>
+      <c r="C354" t="s">
+        <v>368</v>
+      </c>
+      <c r="D354" t="s">
+        <v>369</v>
+      </c>
+      <c r="E354" t="s">
+        <v>14</v>
+      </c>
+      <c r="F354" t="s">
+        <v>374</v>
+      </c>
+      <c r="G354" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" t="s">
+        <v>364</v>
+      </c>
+      <c r="C355" t="s">
+        <v>368</v>
+      </c>
+      <c r="D355" t="s">
+        <v>369</v>
+      </c>
+      <c r="E355" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" t="s">
+        <v>378</v>
+      </c>
+      <c r="G355" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" t="s">
+        <v>364</v>
+      </c>
+      <c r="C356" t="s">
+        <v>368</v>
+      </c>
+      <c r="D356" t="s">
+        <v>369</v>
+      </c>
+      <c r="E356" t="s">
+        <v>14</v>
+      </c>
+      <c r="F356" t="s">
+        <v>378</v>
+      </c>
+      <c r="G356" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7">
+      <c r="B357" t="s">
+        <v>364</v>
+      </c>
+      <c r="C357" t="s">
+        <v>368</v>
+      </c>
+      <c r="D357" t="s">
+        <v>369</v>
+      </c>
+      <c r="E357" t="s">
+        <v>14</v>
+      </c>
+      <c r="F357" t="s">
+        <v>378</v>
+      </c>
+      <c r="G357" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" t="s">
+        <v>364</v>
+      </c>
+      <c r="C358" t="s">
+        <v>368</v>
+      </c>
+      <c r="D358" t="s">
+        <v>369</v>
+      </c>
+      <c r="E358" t="s">
+        <v>14</v>
+      </c>
+      <c r="F358" t="s">
+        <v>382</v>
+      </c>
+      <c r="G358" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7">
+      <c r="B359" t="s">
+        <v>364</v>
+      </c>
+      <c r="C359" t="s">
+        <v>368</v>
+      </c>
+      <c r="D359" t="s">
+        <v>369</v>
+      </c>
+      <c r="E359" t="s">
+        <v>14</v>
+      </c>
+      <c r="F359" t="s">
+        <v>384</v>
+      </c>
+      <c r="G359" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7">
+      <c r="B360" t="s">
+        <v>364</v>
+      </c>
+      <c r="C360" t="s">
+        <v>368</v>
+      </c>
+      <c r="D360" t="s">
+        <v>369</v>
+      </c>
+      <c r="E360" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" t="s">
+        <v>386</v>
+      </c>
+      <c r="G360" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" t="s">
+        <v>364</v>
+      </c>
+      <c r="C361" t="s">
+        <v>368</v>
+      </c>
+      <c r="D361" t="s">
+        <v>369</v>
+      </c>
+      <c r="E361" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361" t="s">
+        <v>388</v>
+      </c>
+      <c r="G361" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7">
+      <c r="B362" t="s">
+        <v>364</v>
+      </c>
+      <c r="C362" t="s">
+        <v>368</v>
+      </c>
+      <c r="D362" t="s">
+        <v>369</v>
+      </c>
+      <c r="E362" t="s">
+        <v>14</v>
+      </c>
+      <c r="F362" t="s">
+        <v>390</v>
+      </c>
+      <c r="G362" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" t="s">
+        <v>364</v>
+      </c>
+      <c r="C363" t="s">
+        <v>368</v>
+      </c>
+      <c r="D363" t="s">
+        <v>369</v>
+      </c>
+      <c r="E363" t="s">
+        <v>14</v>
+      </c>
+      <c r="F363" t="s">
+        <v>392</v>
+      </c>
+      <c r="G363" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7">
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364" t="s">
+        <v>368</v>
+      </c>
+      <c r="D364" t="s">
+        <v>394</v>
+      </c>
+      <c r="E364" t="s">
+        <v>14</v>
+      </c>
+      <c r="F364" t="s">
+        <v>395</v>
+      </c>
+      <c r="G364" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7">
+      <c r="B365" t="s">
+        <v>364</v>
+      </c>
+      <c r="C365" t="s">
+        <v>368</v>
+      </c>
+      <c r="D365" t="s">
+        <v>394</v>
+      </c>
+      <c r="E365" t="s">
+        <v>14</v>
+      </c>
+      <c r="F365" t="s">
+        <v>397</v>
+      </c>
+      <c r="G365" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7">
+      <c r="B366" t="s">
+        <v>364</v>
+      </c>
+      <c r="C366" t="s">
+        <v>368</v>
+      </c>
+      <c r="D366" t="s">
+        <v>394</v>
+      </c>
+      <c r="E366" t="s">
+        <v>14</v>
+      </c>
+      <c r="F366" t="s">
+        <v>399</v>
+      </c>
+      <c r="G366" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7">
+      <c r="B367" t="s">
+        <v>364</v>
+      </c>
+      <c r="C367" t="s">
+        <v>368</v>
+      </c>
+      <c r="D367" t="s">
+        <v>394</v>
+      </c>
+      <c r="E367" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7">
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" t="s">
+        <v>14</v>
+      </c>
+      <c r="F368" t="s">
+        <v>22</v>
+      </c>
+      <c r="G368" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" t="s">
+        <v>403</v>
+      </c>
+      <c r="C369" t="s">
+        <v>54</v>
+      </c>
+      <c r="D369" t="s">
+        <v>55</v>
+      </c>
+      <c r="E369" t="s">
+        <v>14</v>
+      </c>
+      <c r="F369" t="s">
+        <v>56</v>
+      </c>
+      <c r="G369" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" t="s">
+        <v>403</v>
+      </c>
+      <c r="C370" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" t="s">
+        <v>55</v>
+      </c>
+      <c r="E370" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7">
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" t="s">
+        <v>22</v>
+      </c>
+      <c r="G371" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7">
+      <c r="B372" t="s">
+        <v>403</v>
+      </c>
+      <c r="C372" t="s">
+        <v>54</v>
+      </c>
+      <c r="D372" t="s">
+        <v>55</v>
+      </c>
+      <c r="E372" t="s">
+        <v>14</v>
+      </c>
+      <c r="F372" t="s">
+        <v>56</v>
+      </c>
+      <c r="G372" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7">
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" t="s">
+        <v>9</v>
+      </c>
+      <c r="E373" t="s">
+        <v>14</v>
+      </c>
+      <c r="F373" t="s">
+        <v>22</v>
+      </c>
+      <c r="G373" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7">
+      <c r="B374" t="s">
+        <v>403</v>
+      </c>
+      <c r="C374" t="s">
+        <v>54</v>
+      </c>
+      <c r="D374" t="s">
+        <v>55</v>
+      </c>
+      <c r="E374" t="s">
+        <v>14</v>
+      </c>
+      <c r="F374" t="s">
+        <v>56</v>
+      </c>
+      <c r="G374" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7">
+      <c r="B375" t="s">
+        <v>403</v>
+      </c>
+      <c r="C375" t="s">
+        <v>54</v>
+      </c>
+      <c r="D375" t="s">
+        <v>55</v>
+      </c>
+      <c r="E375" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7">
+      <c r="B376" t="s">
+        <v>403</v>
+      </c>
+      <c r="C376" t="s">
+        <v>54</v>
+      </c>
+      <c r="D376" t="s">
+        <v>55</v>
+      </c>
+      <c r="E376" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7">
+      <c r="B377" t="s">
+        <v>403</v>
+      </c>
+      <c r="C377" t="s">
+        <v>54</v>
+      </c>
+      <c r="D377" t="s">
+        <v>55</v>
+      </c>
+      <c r="E377" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7">
+      <c r="B378" t="s">
+        <v>403</v>
+      </c>
+      <c r="C378" t="s">
+        <v>54</v>
+      </c>
+      <c r="D378" t="s">
+        <v>55</v>
+      </c>
+      <c r="E378" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" t="s">
+        <v>403</v>
+      </c>
+      <c r="C379" t="s">
+        <v>54</v>
+      </c>
+      <c r="D379" t="s">
+        <v>55</v>
+      </c>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7">
+      <c r="B380" t="s">
+        <v>403</v>
+      </c>
+      <c r="C380" t="s">
+        <v>54</v>
+      </c>
+      <c r="D380" t="s">
+        <v>55</v>
+      </c>
+      <c r="E380" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" t="s">
+        <v>403</v>
+      </c>
+      <c r="C381" t="s">
+        <v>54</v>
+      </c>
+      <c r="D381" t="s">
+        <v>55</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" t="s">
+        <v>403</v>
+      </c>
+      <c r="C382" t="s">
+        <v>54</v>
+      </c>
+      <c r="D382" t="s">
+        <v>55</v>
+      </c>
+      <c r="E382" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7">
+      <c r="B383" t="s">
+        <v>403</v>
+      </c>
+      <c r="C383" t="s">
+        <v>54</v>
+      </c>
+      <c r="D383" t="s">
+        <v>55</v>
+      </c>
+      <c r="E383" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7">
+      <c r="B384" t="s">
+        <v>403</v>
+      </c>
+      <c r="C384" t="s">
+        <v>54</v>
+      </c>
+      <c r="D384" t="s">
+        <v>55</v>
+      </c>
+      <c r="E384" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7">
+      <c r="B385" t="s">
+        <v>403</v>
+      </c>
+      <c r="C385" t="s">
+        <v>54</v>
+      </c>
+      <c r="D385" t="s">
+        <v>55</v>
+      </c>
+      <c r="E385" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7">
+      <c r="B386" t="s">
+        <v>403</v>
+      </c>
+      <c r="C386" t="s">
+        <v>54</v>
+      </c>
+      <c r="D386" t="s">
+        <v>55</v>
+      </c>
+      <c r="E386" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7">
+      <c r="B387" t="s">
+        <v>403</v>
+      </c>
+      <c r="C387" t="s">
+        <v>54</v>
+      </c>
+      <c r="D387" t="s">
+        <v>55</v>
+      </c>
+      <c r="E387" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7">
+      <c r="B388" t="s">
+        <v>403</v>
+      </c>
+      <c r="C388" t="s">
+        <v>54</v>
+      </c>
+      <c r="D388" t="s">
+        <v>55</v>
+      </c>
+      <c r="E388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7">
+      <c r="B389" t="s">
+        <v>403</v>
+      </c>
+      <c r="C389" t="s">
+        <v>54</v>
+      </c>
+      <c r="D389" t="s">
+        <v>55</v>
+      </c>
+      <c r="E389" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7">
+      <c r="B390" t="s">
+        <v>403</v>
+      </c>
+      <c r="C390" t="s">
+        <v>54</v>
+      </c>
+      <c r="D390" t="s">
+        <v>55</v>
+      </c>
+      <c r="E390" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7">
+      <c r="B391" t="s">
+        <v>403</v>
+      </c>
+      <c r="C391" t="s">
+        <v>54</v>
+      </c>
+      <c r="D391" t="s">
+        <v>55</v>
+      </c>
+      <c r="E391" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" t="s">
+        <v>403</v>
+      </c>
+      <c r="C392" t="s">
+        <v>54</v>
+      </c>
+      <c r="D392" t="s">
+        <v>55</v>
+      </c>
+      <c r="E392" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7">
+      <c r="B393" t="s">
+        <v>403</v>
+      </c>
+      <c r="C393" t="s">
+        <v>54</v>
+      </c>
+      <c r="D393" t="s">
+        <v>55</v>
+      </c>
+      <c r="E393" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" t="s">
+        <v>403</v>
+      </c>
+      <c r="C394" t="s">
+        <v>54</v>
+      </c>
+      <c r="D394" t="s">
+        <v>55</v>
+      </c>
+      <c r="E394" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7">
+      <c r="B395" t="s">
+        <v>403</v>
+      </c>
+      <c r="C395" t="s">
+        <v>54</v>
+      </c>
+      <c r="D395" t="s">
+        <v>55</v>
+      </c>
+      <c r="E395" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" t="s">
+        <v>403</v>
+      </c>
+      <c r="C396" t="s">
+        <v>54</v>
+      </c>
+      <c r="D396" t="s">
+        <v>55</v>
+      </c>
+      <c r="E396" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7">
+      <c r="B397" t="s">
+        <v>403</v>
+      </c>
+      <c r="C397" t="s">
+        <v>54</v>
+      </c>
+      <c r="D397" t="s">
+        <v>55</v>
+      </c>
+      <c r="E397" t="s">
+        <v>10</v>
+      </c>
+      <c r="G397" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7">
+      <c r="B398" t="s">
+        <v>403</v>
+      </c>
+      <c r="C398" t="s">
+        <v>54</v>
+      </c>
+      <c r="D398" t="s">
+        <v>55</v>
+      </c>
+      <c r="E398" t="s">
+        <v>10</v>
+      </c>
+      <c r="G398" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7">
+      <c r="B399" t="s">
+        <v>403</v>
+      </c>
+      <c r="C399" t="s">
+        <v>54</v>
+      </c>
+      <c r="D399" t="s">
+        <v>55</v>
+      </c>
+      <c r="E399" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7">
+      <c r="B400" t="s">
+        <v>403</v>
+      </c>
+      <c r="C400" t="s">
+        <v>54</v>
+      </c>
+      <c r="D400" t="s">
+        <v>55</v>
+      </c>
+      <c r="E400" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7">
+      <c r="B401" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" t="s">
+        <v>54</v>
+      </c>
+      <c r="D401" t="s">
+        <v>55</v>
+      </c>
+      <c r="E401" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7">
+      <c r="B402" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" t="s">
+        <v>54</v>
+      </c>
+      <c r="D402" t="s">
+        <v>55</v>
+      </c>
+      <c r="E402" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7">
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403" t="s">
+        <v>54</v>
+      </c>
+      <c r="D403" t="s">
+        <v>55</v>
+      </c>
+      <c r="E403" t="s">
+        <v>10</v>
+      </c>
+      <c r="G403" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7">
+      <c r="B404" t="s">
+        <v>403</v>
+      </c>
+      <c r="C404" t="s">
+        <v>54</v>
+      </c>
+      <c r="D404" t="s">
+        <v>55</v>
+      </c>
+      <c r="E404" t="s">
+        <v>10</v>
+      </c>
+      <c r="G404" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7">
+      <c r="B405" t="s">
+        <v>403</v>
+      </c>
+      <c r="C405" t="s">
+        <v>54</v>
+      </c>
+      <c r="D405" t="s">
+        <v>55</v>
+      </c>
+      <c r="E405" t="s">
+        <v>10</v>
+      </c>
+      <c r="G405" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7">
+      <c r="B406" t="s">
+        <v>403</v>
+      </c>
+      <c r="C406" t="s">
+        <v>54</v>
+      </c>
+      <c r="D406" t="s">
+        <v>55</v>
+      </c>
+      <c r="E406" t="s">
+        <v>10</v>
+      </c>
+      <c r="G406" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7">
+      <c r="B407" t="s">
+        <v>403</v>
+      </c>
+      <c r="C407" t="s">
+        <v>54</v>
+      </c>
+      <c r="D407" t="s">
+        <v>55</v>
+      </c>
+      <c r="E407" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7">
+      <c r="B408" t="s">
+        <v>403</v>
+      </c>
+      <c r="C408" t="s">
+        <v>54</v>
+      </c>
+      <c r="D408" t="s">
+        <v>55</v>
+      </c>
+      <c r="E408" t="s">
+        <v>10</v>
+      </c>
+      <c r="G408" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7">
+      <c r="B409" t="s">
+        <v>403</v>
+      </c>
+      <c r="C409" t="s">
+        <v>54</v>
+      </c>
+      <c r="D409" t="s">
+        <v>55</v>
+      </c>
+      <c r="E409" t="s">
+        <v>10</v>
+      </c>
+      <c r="G409" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7">
+      <c r="B410" t="s">
+        <v>403</v>
+      </c>
+      <c r="C410" t="s">
+        <v>54</v>
+      </c>
+      <c r="D410" t="s">
+        <v>55</v>
+      </c>
+      <c r="E410" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7">
+      <c r="B411" t="s">
+        <v>403</v>
+      </c>
+      <c r="C411" t="s">
+        <v>54</v>
+      </c>
+      <c r="D411" t="s">
+        <v>55</v>
+      </c>
+      <c r="E411" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7">
+      <c r="B412" t="s">
+        <v>403</v>
+      </c>
+      <c r="C412" t="s">
+        <v>54</v>
+      </c>
+      <c r="D412" t="s">
+        <v>55</v>
+      </c>
+      <c r="E412" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7">
+      <c r="B413" t="s">
+        <v>403</v>
+      </c>
+      <c r="C413" t="s">
+        <v>54</v>
+      </c>
+      <c r="D413" t="s">
+        <v>55</v>
+      </c>
+      <c r="E413" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7">
+      <c r="B414" t="s">
+        <v>403</v>
+      </c>
+      <c r="C414" t="s">
+        <v>54</v>
+      </c>
+      <c r="D414" t="s">
+        <v>55</v>
+      </c>
+      <c r="E414" t="s">
+        <v>10</v>
+      </c>
+      <c r="G414" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7">
+      <c r="B415" t="s">
+        <v>403</v>
+      </c>
+      <c r="C415" t="s">
+        <v>54</v>
+      </c>
+      <c r="D415" t="s">
+        <v>55</v>
+      </c>
+      <c r="E415" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7">
+      <c r="B416" t="s">
+        <v>403</v>
+      </c>
+      <c r="C416" t="s">
+        <v>54</v>
+      </c>
+      <c r="D416" t="s">
+        <v>55</v>
+      </c>
+      <c r="E416" t="s">
+        <v>10</v>
+      </c>
+      <c r="G416" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7">
+      <c r="B417" t="s">
+        <v>403</v>
+      </c>
+      <c r="C417" t="s">
+        <v>54</v>
+      </c>
+      <c r="D417" t="s">
+        <v>55</v>
+      </c>
+      <c r="E417" t="s">
+        <v>10</v>
+      </c>
+      <c r="G417" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" t="s">
+        <v>403</v>
+      </c>
+      <c r="C418" t="s">
+        <v>54</v>
+      </c>
+      <c r="D418" t="s">
+        <v>55</v>
+      </c>
+      <c r="E418" t="s">
+        <v>10</v>
+      </c>
+      <c r="G418" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="B419" t="s">
+        <v>403</v>
+      </c>
+      <c r="C419" t="s">
+        <v>54</v>
+      </c>
+      <c r="D419" t="s">
+        <v>55</v>
+      </c>
+      <c r="E419" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="B420" t="s">
+        <v>403</v>
+      </c>
+      <c r="C420" t="s">
+        <v>54</v>
+      </c>
+      <c r="D420" t="s">
+        <v>55</v>
+      </c>
+      <c r="E420" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" t="s">
+        <v>403</v>
+      </c>
+      <c r="C421" t="s">
+        <v>54</v>
+      </c>
+      <c r="D421" t="s">
+        <v>55</v>
+      </c>
+      <c r="E421" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="B422" t="s">
+        <v>403</v>
+      </c>
+      <c r="C422" t="s">
+        <v>54</v>
+      </c>
+      <c r="D422" t="s">
+        <v>55</v>
+      </c>
+      <c r="E422" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" t="s">
+        <v>9</v>
+      </c>
+      <c r="E423" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" t="s">
+        <v>8</v>
+      </c>
+      <c r="D424" t="s">
+        <v>9</v>
+      </c>
+      <c r="E424" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7">
+      <c r="B425" t="s">
+        <v>403</v>
+      </c>
+      <c r="C425" t="s">
+        <v>54</v>
+      </c>
+      <c r="D425" t="s">
+        <v>55</v>
+      </c>
+      <c r="E425" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="B426" t="s">
+        <v>403</v>
+      </c>
+      <c r="C426" t="s">
+        <v>54</v>
+      </c>
+      <c r="D426" t="s">
+        <v>55</v>
+      </c>
+      <c r="E426" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7">
+      <c r="B427" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:G13">
+  <conditionalFormatting sqref="A4:G428">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/src/report/assets/report.xlsx
+++ b/src/report/assets/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="463">
   <si>
-    <t>Relatório das Ultimas 24 horas 2022-09-10 10:23:18</t>
+    <t>Relatório das Ultimas 24 horas 2022-09-10 13:23:19</t>
   </si>
   <si>
     <t>Task Code</t>

--- a/src/report/assets/report.xlsx
+++ b/src/report/assets/report.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
-  <si>
-    <t>Relatório das Ultimas 24 horas 2022-09-14 10:21:18</t>
-  </si>
-  <si>
-    <t>Task Code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>Relatório das Ultimas 24 horas 2022-09-26 14:09:21</t>
+  </si>
+  <si>
+    <t>Job Code</t>
   </si>
   <si>
     <t>Name</t>
@@ -37,43 +37,22 @@
     <t>date</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>01-job</t>
   </si>
   <si>
     <t>CurrentCurrencyTrades</t>
   </si>
   <si>
-    <t>Update of current exchange rates</t>
+    <t>Current exchange rates update</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>2022-09-12 16:00:07</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>InterestRates</t>
-  </si>
-  <si>
-    <t>Daily Interest Rates update</t>
-  </si>
-  <si>
-    <t>2022-09-13 08:00:04</t>
-  </si>
-  <si>
-    <t>2022-09-13 08:00:09</t>
-  </si>
-  <si>
-    <t>2022-09-13 16:00:07</t>
-  </si>
-  <si>
-    <t>2022-09-14 08:00:04</t>
-  </si>
-  <si>
-    <t>2022-09-14 08:00:08</t>
+    <t>2022-09-26 13:45:59</t>
+  </si>
+  <si>
+    <t>2022-09-26 13:46:28</t>
   </si>
 </sst>
 </file>
@@ -467,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,91 +497,23 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:G10">
+  <conditionalFormatting sqref="A4:G6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/src/report/assets/report.xlsx
+++ b/src/report/assets/report.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>Relatório das Ultimas 24 horas 2022-09-26 14:09:21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="410">
+  <si>
+    <t>Relatório das Ultimas 24 horas 2022-10-22 20:03:05</t>
   </si>
   <si>
     <t>Job Code</t>
@@ -37,7 +37,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>01-job</t>
+    <t>01-job-currency-trades</t>
   </si>
   <si>
     <t>CurrentCurrencyTrades</t>
@@ -49,10 +49,1201 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>2022-09-26 13:45:59</t>
-  </si>
-  <si>
-    <t>2022-09-26 13:46:28</t>
+    <t>2022-10-03 16:00:06</t>
+  </si>
+  <si>
+    <t>02-job-interest-rates</t>
+  </si>
+  <si>
+    <t>InterestRates</t>
+  </si>
+  <si>
+    <t>Daily Interest Rates update</t>
+  </si>
+  <si>
+    <t>2022-10-04 08:00:04</t>
+  </si>
+  <si>
+    <t>2022-10-04 08:00:09</t>
+  </si>
+  <si>
+    <t>2022-10-04 16:00:06</t>
+  </si>
+  <si>
+    <t>2022-10-05 08:00:03</t>
+  </si>
+  <si>
+    <t>2022-10-05 08:00:08</t>
+  </si>
+  <si>
+    <t>2022-10-05 16:00:06</t>
+  </si>
+  <si>
+    <t>01-business-confidence</t>
+  </si>
+  <si>
+    <t>Aggregate Business Confidence indicator</t>
+  </si>
+  <si>
+    <t>Aggregate Business Confidence indicator update</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AWS Textract failed to extract /home/ubuntu/economist-update/src/businessConfidenceAggregate/assets/business-confidence-aggregate.pdf document table.</t>
+  </si>
+  <si>
+    <t>2022-10-06 02:05:11</t>
+  </si>
+  <si>
+    <t>Invalid pdf page, the data contained by pdf dois not look like business-confidence-aggregate data.</t>
+  </si>
+  <si>
+    <t>2022-10-06 02:05:12</t>
+  </si>
+  <si>
+    <t>02-business-confidence</t>
+  </si>
+  <si>
+    <t>By Sector Business Confidence indicator</t>
+  </si>
+  <si>
+    <t>By Sector Business Confidence indicator update</t>
+  </si>
+  <si>
+    <t>2022-10-07 09:45:02</t>
+  </si>
+  <si>
+    <t>2022-10-07 10:06:30</t>
+  </si>
+  <si>
+    <t>2022-10-07 16:00:06</t>
+  </si>
+  <si>
+    <t>03-job-cpi</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Consumer Price Index update</t>
+  </si>
+  <si>
+    <t>Database failed to get nacional CPI last update date</t>
+  </si>
+  <si>
+    <t>2022-10-08 03:00:00</t>
+  </si>
+  <si>
+    <t>2022-10-08 16:00:07</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:00:04</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:00:06</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:00:09</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:00:11</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:00:16</t>
+  </si>
+  <si>
+    <t>2022-10-09 16:00:06</t>
+  </si>
+  <si>
+    <t>2022-10-10 08:00:03</t>
+  </si>
+  <si>
+    <t>2022-10-10 08:00:08</t>
+  </si>
+  <si>
+    <t>2022-10-10 16:00:11</t>
+  </si>
+  <si>
+    <t>2022-10-11 03:00:52</t>
+  </si>
+  <si>
+    <t>2022-10-11 03:02:01</t>
+  </si>
+  <si>
+    <t>2022-10-11 08:00:08</t>
+  </si>
+  <si>
+    <t>The Rússia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-11 08:00:12</t>
+  </si>
+  <si>
+    <t>Invalid pdf page, the data contained by pdf dois not look like exchange-rates data.</t>
+  </si>
+  <si>
+    <t>2022-10-17 14:53:31</t>
+  </si>
+  <si>
+    <t>2022-10-17 14:55:28</t>
+  </si>
+  <si>
+    <t>2022-10-17 14:59:25</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:04:51</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:05:46</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:06:49</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:08:23</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:09:31</t>
+  </si>
+  <si>
+    <t>The Àfrica do Sul currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:25</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:30</t>
+  </si>
+  <si>
+    <t>The FMI currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:35</t>
+  </si>
+  <si>
+    <t>The Botswana currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:41</t>
+  </si>
+  <si>
+    <t>The Inglaterra currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:46</t>
+  </si>
+  <si>
+    <t>The Brasil currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:51</t>
+  </si>
+  <si>
+    <t>The China currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:19:55</t>
+  </si>
+  <si>
+    <t>The Suíça currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:20:00</t>
+  </si>
+  <si>
+    <t>The Zimbabwe currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:20:04</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:20:27</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:20:30</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:22:36</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:22:41</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:22:46</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:22:52</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:22:56</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:03</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:08</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:13</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:31</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:35</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:41</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:46</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:54</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:23:59</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:24:03</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:24:08</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:24:16</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:24:50</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:24:56</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:01</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:06</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:11</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:17</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:24</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:29</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:33</t>
+  </si>
+  <si>
+    <t>The Noruega currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:38</t>
+  </si>
+  <si>
+    <t>The Dinamarca currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:44</t>
+  </si>
+  <si>
+    <t>The Kuwait currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:49</t>
+  </si>
+  <si>
+    <t>The Nova Zelândia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:53</t>
+  </si>
+  <si>
+    <t>The União Europeia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:25:58</t>
+  </si>
+  <si>
+    <t>The Tanzânia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:26:03</t>
+  </si>
+  <si>
+    <t>The Canada currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:26:08</t>
+  </si>
+  <si>
+    <t>The India currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:26:13</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:27:49</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:27:56</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:28:00</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:28:05</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:28:10</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:28:15</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:28:20</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:29:02</t>
+  </si>
+  <si>
+    <t>2022-10-17 15:29:06</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:00:15</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:01:13</t>
+  </si>
+  <si>
+    <t>The Emirados Árabes Unidos currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:01:19</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:01:50</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:01:56</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:01</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:07</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:12</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:16</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:21</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:26</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on Zimbabwe</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:30</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:35</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:40</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:45</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:50</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:54</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:02:59</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on Tanzânia</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:05</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:10</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:14</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on India</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:19</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:25</t>
+  </si>
+  <si>
+    <t>The Suécia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:29</t>
+  </si>
+  <si>
+    <t>The Estados Unidos currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:35</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on Malawi</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:40</t>
+  </si>
+  <si>
+    <t>The Malawi currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:44</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on Iraque</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:49</t>
+  </si>
+  <si>
+    <t>The Iraque currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:54</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:03:59</t>
+  </si>
+  <si>
+    <t>aggregate Economic Activities Index: has a format error on Japão</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:04:04</t>
+  </si>
+  <si>
+    <t>The Japão currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:04:08</t>
+  </si>
+  <si>
+    <t>The Zâmbia currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:04:13</t>
+  </si>
+  <si>
+    <t>The Austrália currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:04:18</t>
+  </si>
+  <si>
+    <t>The Mauricias currency has a format error</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:04:22</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:31</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:36</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:40</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:44</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:49</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:54</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:18:59</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:03</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:09</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:13</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:19</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:27</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:32</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:37</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:42</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:47</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:53</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:19:58</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:20:02</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:20:07</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:20:11</t>
+  </si>
+  <si>
+    <t>2022-10-17 16:26:50</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:09</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:14</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:19</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:24</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:29</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:34</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:38</t>
+  </si>
+  <si>
+    <t>2022-10-18 08:00:55</t>
+  </si>
+  <si>
+    <t>2022-10-18 16:00:15</t>
+  </si>
+  <si>
+    <t>2022-10-19 03:03:24</t>
+  </si>
+  <si>
+    <t>2022-10-19 03:06:35</t>
+  </si>
+  <si>
+    <t>2022-10-19 03:07:52</t>
+  </si>
+  <si>
+    <t>2022-10-19 03:08:56</t>
+  </si>
+  <si>
+    <t>2022-10-19 08:00:08</t>
+  </si>
+  <si>
+    <t>2022-10-19 08:00:24</t>
+  </si>
+  <si>
+    <t>2022-10-19 16:00:14</t>
+  </si>
+  <si>
+    <t>2022-10-20 08:00:06</t>
+  </si>
+  <si>
+    <t>2022-10-20 08:00:22</t>
+  </si>
+  <si>
+    <t>Invalid pdf page, the data contained by pdf dois not look like credit-by-purpose data.</t>
+  </si>
+  <si>
+    <t>2022-10-20 11:42:39</t>
+  </si>
+  <si>
+    <t>2022-10-20 11:44:35</t>
+  </si>
+  <si>
+    <t>2022-10-20 16:00:15</t>
+  </si>
+  <si>
+    <t>Date in the credit-by-purpose table could not be processed. It could be a problem format from header table row or column.</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:25:25</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:27:19</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:28:05</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:28:50</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:39:16</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:50:08</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:50:42</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:51:47</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:54:05</t>
+  </si>
+  <si>
+    <t>2022-10-20 21:55:18</t>
+  </si>
+  <si>
+    <t>2022-10-20 22:11:28</t>
+  </si>
+  <si>
+    <t>Credit By Purpose: has a format error on 1. AGRICULTURA</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:43:37</t>
+  </si>
+  <si>
+    <t>Credit By Purpose: has a format error on 1 AGRICULTURA</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:44:11</t>
+  </si>
+  <si>
+    <t>Credit By Purpose: has a format error on  AGRICULTURA</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:44:42</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:45:25</t>
+  </si>
+  <si>
+    <t>Credit By Purpose: has a format error on 1. agricultura</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:57:02</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:57:35</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:57:50</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:58:32</t>
+  </si>
+  <si>
+    <t>2022-10-21 01:00:41</t>
+  </si>
+  <si>
+    <t>2022-10-21 01:01:03</t>
+  </si>
+  <si>
+    <t>2022-10-21 02:15:07</t>
+  </si>
+  <si>
+    <t>2022-10-21 02:17:05</t>
+  </si>
+  <si>
+    <t>2022-10-21 02:17:25</t>
+  </si>
+  <si>
+    <t>2022-10-21 02:18:52</t>
+  </si>
+  <si>
+    <t>2022-10-21 08:00:06</t>
+  </si>
+  <si>
+    <t>2022-10-21 08:00:22</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:42:43</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:46:59</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:50:59</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:52:12</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:52:34</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:53:05</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:53:28</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:57:40</t>
+  </si>
+  <si>
+    <t>2022-10-21 10:59:44</t>
+  </si>
+  <si>
+    <t>Could not fetch the By Sector Business Confidence indicator, the url is https://www.bancomoc.mz/fm_pgLink.aspx?id=222</t>
+  </si>
+  <si>
+    <t>2022-10-21 11:40:28</t>
+  </si>
+  <si>
+    <t>2022-10-21 16:00:14</t>
+  </si>
+  <si>
+    <t>2022-10-21 16:57:19</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:02:22</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:07:18</t>
+  </si>
+  <si>
+    <t>Database failed to get By Sector Business Confidence indicator update date</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:07:53</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:08:48</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:08:56</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:37:39</t>
+  </si>
+  <si>
+    <t>Was not possible to read None file</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:37:47</t>
+  </si>
+  <si>
+    <t>Date in the credit-by-activity-sector table could not be processed. It could be a problem format from header table row or column.</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:37:53</t>
+  </si>
+  <si>
+    <t>Was not able to save credit-by-activity-sector By Sector Business Confidence indicator</t>
+  </si>
+  <si>
+    <t>2022-10-21 17:37:59</t>
+  </si>
+  <si>
+    <t>2022-10-21 20:44:15</t>
+  </si>
+  <si>
+    <t>2022-10-21 20:44:26</t>
+  </si>
+  <si>
+    <t>2022-10-21 20:44:33</t>
+  </si>
+  <si>
+    <t>2022-10-21 20:44:42</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:36:39</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:36:48</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:38:10</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:38:17</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:41:00</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:41:08</t>
+  </si>
+  <si>
+    <t>Was not possible to read /home/arlindo/Desktop/economist-update/src/creditByActivitySector/assets/.~lock.pt_42_CS.xlsx# file</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:48:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:48:29</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:48:34</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:49:41</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:49:48</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:49:55</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:51:08</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:51:17</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:51:23</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:53:28</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:53:35</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:53:41</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:57:35</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:57:42</t>
+  </si>
+  <si>
+    <t>2022-10-22 05:57:47</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:01:22</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:01:30</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:01:36</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:03:14</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:03:22</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:03:28</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:04:16</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:04:24</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:08:07</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:08:14</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:10:01</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:10:09</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:10:45</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:10:51</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:11:58</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:12:07</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:16:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:18:20</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:18:27</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:18:33</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:19:15</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:19:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:19:29</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:20:09</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:20:15</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:20:23</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:20:50</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:21:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:21:27</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:21:59</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:22:05</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:23:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:23:28</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:23:35</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:24:38</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:24:46</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:24:52</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:26:38</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:26:45</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:26:51</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:27:55</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:28:02</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:29:01</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:29:08</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:30:14</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:30:22</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:31:40</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:31:47</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:33:54</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:34:00</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:38:16</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:38:24</t>
+  </si>
+  <si>
+    <t>Was not possible to read /home/arlindo/Desktop/economist-update/src/creditByActivitySector/assets/pt_42_CS.xlsx file</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:54:08</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:54:16</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:54:22</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:57:06</t>
+  </si>
+  <si>
+    <t>2022-10-22 06:57:12</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:06:19</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:06:27</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:06:34</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:07:56</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:08:02</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:08:10</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:09:32</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:09:40</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:09:47</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:10:25</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:10:33</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:10:40</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:11:29</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:11:36</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:11:44</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:12:29</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:12:35</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:12:43</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:18:45</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:18:54</t>
+  </si>
+  <si>
+    <t>Credit By Purpose: has a format error on TOTAL</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:23:29</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:23:42</t>
+  </si>
+  <si>
+    <t>2022-10-22 07:28:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 08:00:08</t>
+  </si>
+  <si>
+    <t>2022-10-22 08:00:24</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:42:12</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:42:21</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:45:09</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:46:39</t>
+  </si>
+  <si>
+    <t>2022-10-22 09:48:41</t>
+  </si>
+  <si>
+    <t>2022-10-22 16:00:15</t>
+  </si>
+  <si>
+    <t>2022-10-22 19:21:35</t>
+  </si>
+  <si>
+    <t>2022-10-22 19:25:36</t>
+  </si>
+  <si>
+    <t>Could not fetch the quelimane CPI, the url is http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-preco-no-consumidor/quadros/quelimane</t>
+  </si>
+  <si>
+    <t>2022-10-22 19:28:02</t>
+  </si>
+  <si>
+    <t>02-exchange-rates</t>
+  </si>
+  <si>
+    <t>Taxa de Câmbio Corrente</t>
+  </si>
+  <si>
+    <t>Taxas de Câmbio de Referência do Mercado  Interbancário (Cotações)</t>
+  </si>
+  <si>
+    <t>2022-10-22 20:02:20</t>
   </si>
 </sst>
 </file>
@@ -446,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,23 +1688,6389 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" t="s">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s">
+        <v>69</v>
+      </c>
+      <c r="G99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" t="s">
+        <v>75</v>
+      </c>
+      <c r="G102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>146</v>
+      </c>
+      <c r="G104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" t="s">
+        <v>161</v>
+      </c>
+      <c r="G116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" t="s">
+        <v>163</v>
+      </c>
+      <c r="G117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>165</v>
+      </c>
+      <c r="G118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" t="s">
+        <v>171</v>
+      </c>
+      <c r="G121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s">
+        <v>53</v>
+      </c>
+      <c r="G122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>174</v>
+      </c>
+      <c r="G123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>176</v>
+      </c>
+      <c r="G124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>178</v>
+      </c>
+      <c r="G125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" t="s">
+        <v>136</v>
+      </c>
+      <c r="G129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" t="s">
+        <v>67</v>
+      </c>
+      <c r="G130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" t="s">
+        <v>73</v>
+      </c>
+      <c r="G133" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" t="s">
+        <v>75</v>
+      </c>
+      <c r="G134" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" t="s">
+        <v>77</v>
+      </c>
+      <c r="G135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" t="s">
+        <v>109</v>
+      </c>
+      <c r="G137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" t="s">
+        <v>111</v>
+      </c>
+      <c r="G138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" t="s">
+        <v>113</v>
+      </c>
+      <c r="G139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" t="s">
+        <v>115</v>
+      </c>
+      <c r="G140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s">
+        <v>117</v>
+      </c>
+      <c r="G141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" t="s">
+        <v>119</v>
+      </c>
+      <c r="G142" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s">
+        <v>121</v>
+      </c>
+      <c r="G143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s">
+        <v>123</v>
+      </c>
+      <c r="G144" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" t="s">
+        <v>161</v>
+      </c>
+      <c r="G145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" t="s">
+        <v>163</v>
+      </c>
+      <c r="G146" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" t="s">
+        <v>167</v>
+      </c>
+      <c r="G147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>171</v>
+      </c>
+      <c r="G148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" t="s">
+        <v>37</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>224</v>
+      </c>
+      <c r="G168" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" t="s">
+        <v>224</v>
+      </c>
+      <c r="G169" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" t="s">
+        <v>228</v>
+      </c>
+      <c r="G171" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" t="s">
+        <v>228</v>
+      </c>
+      <c r="G172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" t="s">
+        <v>228</v>
+      </c>
+      <c r="G173" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" t="s">
+        <v>228</v>
+      </c>
+      <c r="G174" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" t="s">
+        <v>228</v>
+      </c>
+      <c r="G175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" t="s">
+        <v>228</v>
+      </c>
+      <c r="G176" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
+      <c r="F177" t="s">
+        <v>228</v>
+      </c>
+      <c r="G177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" t="s">
+        <v>228</v>
+      </c>
+      <c r="G178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" t="s">
+        <v>228</v>
+      </c>
+      <c r="G179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" t="s">
+        <v>228</v>
+      </c>
+      <c r="G180" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" t="s">
+        <v>228</v>
+      </c>
+      <c r="G181" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" t="s">
+        <v>30</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" t="s">
+        <v>240</v>
+      </c>
+      <c r="G182" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" t="s">
+        <v>242</v>
+      </c>
+      <c r="G183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" t="s">
+        <v>244</v>
+      </c>
+      <c r="G184" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" t="s">
+        <v>244</v>
+      </c>
+      <c r="G185" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" t="s">
+        <v>247</v>
+      </c>
+      <c r="G186" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" t="s">
+        <v>240</v>
+      </c>
+      <c r="G187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" t="s">
+        <v>240</v>
+      </c>
+      <c r="G188" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F189" t="s">
+        <v>240</v>
+      </c>
+      <c r="G189" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+      <c r="F190" t="s">
+        <v>240</v>
+      </c>
+      <c r="G190" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" t="s">
+        <v>240</v>
+      </c>
+      <c r="G191" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" t="s">
+        <v>29</v>
+      </c>
+      <c r="C204" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" t="s">
+        <v>31</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" t="s">
+        <v>30</v>
+      </c>
+      <c r="D205" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" t="s">
+        <v>29</v>
+      </c>
+      <c r="C206" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" t="s">
+        <v>31</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" t="s">
+        <v>24</v>
+      </c>
+      <c r="F207" t="s">
+        <v>269</v>
+      </c>
+      <c r="G207" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" t="s">
+        <v>24</v>
+      </c>
+      <c r="F212" t="s">
+        <v>275</v>
+      </c>
+      <c r="G212" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" t="s">
+        <v>24</v>
+      </c>
+      <c r="F213" t="s">
+        <v>269</v>
+      </c>
+      <c r="G213" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" t="s">
+        <v>29</v>
+      </c>
+      <c r="C214" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" t="s">
+        <v>228</v>
+      </c>
+      <c r="G214" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" t="s">
+        <v>30</v>
+      </c>
+      <c r="D215" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" t="s">
+        <v>269</v>
+      </c>
+      <c r="G215" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" t="s">
+        <v>24</v>
+      </c>
+      <c r="F216" t="s">
+        <v>280</v>
+      </c>
+      <c r="G216" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" t="s">
+        <v>29</v>
+      </c>
+      <c r="C217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217" t="s">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>282</v>
+      </c>
+      <c r="G217" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" t="s">
+        <v>30</v>
+      </c>
+      <c r="D218" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" t="s">
+        <v>284</v>
+      </c>
+      <c r="G218" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" t="s">
+        <v>29</v>
+      </c>
+      <c r="C219" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" t="s">
+        <v>24</v>
+      </c>
+      <c r="F219" t="s">
+        <v>269</v>
+      </c>
+      <c r="G219" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>37</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" t="s">
+        <v>280</v>
+      </c>
+      <c r="G220" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" t="s">
+        <v>29</v>
+      </c>
+      <c r="C221" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" t="s">
+        <v>282</v>
+      </c>
+      <c r="G221" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" t="s">
+        <v>29</v>
+      </c>
+      <c r="C222" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" t="s">
+        <v>31</v>
+      </c>
+      <c r="E222" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" t="s">
+        <v>284</v>
+      </c>
+      <c r="G222" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" t="s">
+        <v>282</v>
+      </c>
+      <c r="G223" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" t="s">
+        <v>284</v>
+      </c>
+      <c r="G224" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" t="s">
+        <v>282</v>
+      </c>
+      <c r="G225" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" t="s">
+        <v>284</v>
+      </c>
+      <c r="G226" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" t="s">
+        <v>31</v>
+      </c>
+      <c r="E227" t="s">
+        <v>24</v>
+      </c>
+      <c r="F227" t="s">
+        <v>282</v>
+      </c>
+      <c r="G227" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" t="s">
+        <v>30</v>
+      </c>
+      <c r="D228" t="s">
+        <v>31</v>
+      </c>
+      <c r="E228" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" t="s">
+        <v>284</v>
+      </c>
+      <c r="G228" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" t="s">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>37</v>
+      </c>
+      <c r="E229" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" t="s">
+        <v>296</v>
+      </c>
+      <c r="G229" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" t="s">
+        <v>29</v>
+      </c>
+      <c r="C230" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" t="s">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>282</v>
+      </c>
+      <c r="G230" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" t="s">
+        <v>31</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" t="s">
+        <v>284</v>
+      </c>
+      <c r="G231" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" t="s">
+        <v>36</v>
+      </c>
+      <c r="D232" t="s">
+        <v>37</v>
+      </c>
+      <c r="E232" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232" t="s">
+        <v>296</v>
+      </c>
+      <c r="G232" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" t="s">
+        <v>29</v>
+      </c>
+      <c r="C233" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F233" t="s">
+        <v>282</v>
+      </c>
+      <c r="G233" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" t="s">
+        <v>284</v>
+      </c>
+      <c r="G234" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" t="s">
+        <v>36</v>
+      </c>
+      <c r="D235" t="s">
+        <v>37</v>
+      </c>
+      <c r="E235" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" t="s">
+        <v>296</v>
+      </c>
+      <c r="G235" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" t="s">
+        <v>29</v>
+      </c>
+      <c r="C236" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236" t="s">
+        <v>24</v>
+      </c>
+      <c r="F236" t="s">
+        <v>282</v>
+      </c>
+      <c r="G236" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" t="s">
+        <v>29</v>
+      </c>
+      <c r="C237" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" t="s">
+        <v>31</v>
+      </c>
+      <c r="E237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" t="s">
+        <v>284</v>
+      </c>
+      <c r="G237" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D238" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238" t="s">
+        <v>296</v>
+      </c>
+      <c r="G238" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" t="s">
+        <v>31</v>
+      </c>
+      <c r="E239" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" t="s">
+        <v>282</v>
+      </c>
+      <c r="G239" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>284</v>
+      </c>
+      <c r="G240" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" t="s">
+        <v>36</v>
+      </c>
+      <c r="D241" t="s">
+        <v>37</v>
+      </c>
+      <c r="E241" t="s">
+        <v>24</v>
+      </c>
+      <c r="F241" t="s">
+        <v>296</v>
+      </c>
+      <c r="G241" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" t="s">
+        <v>24</v>
+      </c>
+      <c r="F242" t="s">
+        <v>282</v>
+      </c>
+      <c r="G242" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" t="s">
+        <v>29</v>
+      </c>
+      <c r="C243" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" t="s">
+        <v>31</v>
+      </c>
+      <c r="E243" t="s">
+        <v>24</v>
+      </c>
+      <c r="F243" t="s">
+        <v>284</v>
+      </c>
+      <c r="G243" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>24</v>
+      </c>
+      <c r="F244" t="s">
+        <v>296</v>
+      </c>
+      <c r="G244" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" t="s">
+        <v>31</v>
+      </c>
+      <c r="E245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" t="s">
+        <v>282</v>
+      </c>
+      <c r="G245" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" t="s">
+        <v>24</v>
+      </c>
+      <c r="F246" t="s">
+        <v>284</v>
+      </c>
+      <c r="G246" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" t="s">
+        <v>24</v>
+      </c>
+      <c r="F247" t="s">
+        <v>296</v>
+      </c>
+      <c r="G247" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" t="s">
+        <v>24</v>
+      </c>
+      <c r="F248" t="s">
+        <v>282</v>
+      </c>
+      <c r="G248" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" t="s">
+        <v>29</v>
+      </c>
+      <c r="C249" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" t="s">
+        <v>31</v>
+      </c>
+      <c r="E249" t="s">
+        <v>24</v>
+      </c>
+      <c r="F249" t="s">
+        <v>284</v>
+      </c>
+      <c r="G249" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" t="s">
+        <v>24</v>
+      </c>
+      <c r="F250" t="s">
+        <v>282</v>
+      </c>
+      <c r="G250" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" t="s">
+        <v>29</v>
+      </c>
+      <c r="C251" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" t="s">
+        <v>24</v>
+      </c>
+      <c r="F251" t="s">
+        <v>284</v>
+      </c>
+      <c r="G251" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" t="s">
+        <v>24</v>
+      </c>
+      <c r="F252" t="s">
+        <v>282</v>
+      </c>
+      <c r="G252" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" t="s">
+        <v>29</v>
+      </c>
+      <c r="C253" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" t="s">
+        <v>24</v>
+      </c>
+      <c r="F253" t="s">
+        <v>284</v>
+      </c>
+      <c r="G253" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" t="s">
+        <v>29</v>
+      </c>
+      <c r="C254" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" t="s">
+        <v>24</v>
+      </c>
+      <c r="F254" t="s">
+        <v>282</v>
+      </c>
+      <c r="G254" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" t="s">
+        <v>31</v>
+      </c>
+      <c r="E255" t="s">
+        <v>24</v>
+      </c>
+      <c r="F255" t="s">
+        <v>284</v>
+      </c>
+      <c r="G255" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256" t="s">
+        <v>24</v>
+      </c>
+      <c r="F256" t="s">
+        <v>282</v>
+      </c>
+      <c r="G256" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" t="s">
+        <v>29</v>
+      </c>
+      <c r="C257" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" t="s">
+        <v>31</v>
+      </c>
+      <c r="E257" t="s">
+        <v>24</v>
+      </c>
+      <c r="F257" t="s">
+        <v>284</v>
+      </c>
+      <c r="G257" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258" t="s">
+        <v>30</v>
+      </c>
+      <c r="D258" t="s">
+        <v>31</v>
+      </c>
+      <c r="E258" t="s">
+        <v>24</v>
+      </c>
+      <c r="F258" t="s">
+        <v>282</v>
+      </c>
+      <c r="G258" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" t="s">
+        <v>29</v>
+      </c>
+      <c r="C259" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259" t="s">
+        <v>24</v>
+      </c>
+      <c r="F259" t="s">
+        <v>284</v>
+      </c>
+      <c r="G259" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" t="s">
+        <v>29</v>
+      </c>
+      <c r="C260" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260" t="s">
+        <v>24</v>
+      </c>
+      <c r="F260" t="s">
+        <v>284</v>
+      </c>
+      <c r="G260" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" t="s">
+        <v>24</v>
+      </c>
+      <c r="F261" t="s">
+        <v>296</v>
+      </c>
+      <c r="G261" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" t="s">
+        <v>30</v>
+      </c>
+      <c r="D262" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262" t="s">
+        <v>24</v>
+      </c>
+      <c r="F262" t="s">
+        <v>282</v>
+      </c>
+      <c r="G262" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" t="s">
+        <v>29</v>
+      </c>
+      <c r="C263" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263" t="s">
+        <v>31</v>
+      </c>
+      <c r="E263" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263" t="s">
+        <v>284</v>
+      </c>
+      <c r="G263" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" t="s">
+        <v>37</v>
+      </c>
+      <c r="E264" t="s">
+        <v>24</v>
+      </c>
+      <c r="F264" t="s">
+        <v>296</v>
+      </c>
+      <c r="G264" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" t="s">
+        <v>29</v>
+      </c>
+      <c r="C265" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" t="s">
+        <v>31</v>
+      </c>
+      <c r="E265" t="s">
+        <v>24</v>
+      </c>
+      <c r="F265" t="s">
+        <v>282</v>
+      </c>
+      <c r="G265" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" t="s">
+        <v>29</v>
+      </c>
+      <c r="C266" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266" t="s">
+        <v>31</v>
+      </c>
+      <c r="E266" t="s">
+        <v>24</v>
+      </c>
+      <c r="F266" t="s">
+        <v>284</v>
+      </c>
+      <c r="G266" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" t="s">
+        <v>35</v>
+      </c>
+      <c r="C267" t="s">
+        <v>36</v>
+      </c>
+      <c r="D267" t="s">
+        <v>37</v>
+      </c>
+      <c r="E267" t="s">
+        <v>24</v>
+      </c>
+      <c r="F267" t="s">
+        <v>296</v>
+      </c>
+      <c r="G267" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" t="s">
+        <v>31</v>
+      </c>
+      <c r="E268" t="s">
+        <v>24</v>
+      </c>
+      <c r="F268" t="s">
+        <v>282</v>
+      </c>
+      <c r="G268" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" t="s">
+        <v>29</v>
+      </c>
+      <c r="C269" t="s">
+        <v>30</v>
+      </c>
+      <c r="D269" t="s">
+        <v>31</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" t="s">
+        <v>284</v>
+      </c>
+      <c r="G269" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" t="s">
+        <v>29</v>
+      </c>
+      <c r="C270" t="s">
+        <v>30</v>
+      </c>
+      <c r="D270" t="s">
+        <v>31</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+      <c r="F270" t="s">
+        <v>269</v>
+      </c>
+      <c r="G270" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" t="s">
+        <v>29</v>
+      </c>
+      <c r="C271" t="s">
+        <v>30</v>
+      </c>
+      <c r="D271" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" t="s">
+        <v>24</v>
+      </c>
+      <c r="F271" t="s">
+        <v>282</v>
+      </c>
+      <c r="G271" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" t="s">
+        <v>29</v>
+      </c>
+      <c r="C272" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" t="s">
+        <v>31</v>
+      </c>
+      <c r="E272" t="s">
+        <v>24</v>
+      </c>
+      <c r="F272" t="s">
+        <v>284</v>
+      </c>
+      <c r="G272" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" t="s">
+        <v>30</v>
+      </c>
+      <c r="D273" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273" t="s">
+        <v>24</v>
+      </c>
+      <c r="F273" t="s">
+        <v>282</v>
+      </c>
+      <c r="G273" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" t="s">
+        <v>29</v>
+      </c>
+      <c r="C274" t="s">
+        <v>30</v>
+      </c>
+      <c r="D274" t="s">
+        <v>31</v>
+      </c>
+      <c r="E274" t="s">
+        <v>24</v>
+      </c>
+      <c r="F274" t="s">
+        <v>284</v>
+      </c>
+      <c r="G274" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" t="s">
+        <v>35</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>37</v>
+      </c>
+      <c r="E275" t="s">
+        <v>24</v>
+      </c>
+      <c r="F275" t="s">
+        <v>296</v>
+      </c>
+      <c r="G275" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" t="s">
+        <v>29</v>
+      </c>
+      <c r="C276" t="s">
+        <v>30</v>
+      </c>
+      <c r="D276" t="s">
+        <v>31</v>
+      </c>
+      <c r="E276" t="s">
+        <v>24</v>
+      </c>
+      <c r="F276" t="s">
+        <v>282</v>
+      </c>
+      <c r="G276" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" t="s">
+        <v>29</v>
+      </c>
+      <c r="C277" t="s">
+        <v>30</v>
+      </c>
+      <c r="D277" t="s">
+        <v>31</v>
+      </c>
+      <c r="E277" t="s">
+        <v>24</v>
+      </c>
+      <c r="F277" t="s">
+        <v>284</v>
+      </c>
+      <c r="G277" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" t="s">
+        <v>35</v>
+      </c>
+      <c r="C278" t="s">
+        <v>36</v>
+      </c>
+      <c r="D278" t="s">
+        <v>37</v>
+      </c>
+      <c r="E278" t="s">
+        <v>24</v>
+      </c>
+      <c r="F278" t="s">
+        <v>296</v>
+      </c>
+      <c r="G278" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279" t="s">
+        <v>282</v>
+      </c>
+      <c r="G279" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280" t="s">
+        <v>30</v>
+      </c>
+      <c r="D280" t="s">
+        <v>31</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+      <c r="G280" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" t="s">
+        <v>37</v>
+      </c>
+      <c r="E281" t="s">
+        <v>24</v>
+      </c>
+      <c r="F281" t="s">
+        <v>296</v>
+      </c>
+      <c r="G281" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" t="s">
+        <v>31</v>
+      </c>
+      <c r="E282" t="s">
+        <v>24</v>
+      </c>
+      <c r="F282" t="s">
+        <v>282</v>
+      </c>
+      <c r="G282" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" t="s">
+        <v>29</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" t="s">
+        <v>24</v>
+      </c>
+      <c r="F283" t="s">
+        <v>284</v>
+      </c>
+      <c r="G283" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" t="s">
+        <v>30</v>
+      </c>
+      <c r="D284" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284" t="s">
+        <v>24</v>
+      </c>
+      <c r="F284" t="s">
+        <v>282</v>
+      </c>
+      <c r="G284" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" t="s">
+        <v>31</v>
+      </c>
+      <c r="E285" t="s">
+        <v>24</v>
+      </c>
+      <c r="F285" t="s">
+        <v>284</v>
+      </c>
+      <c r="G285" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" t="s">
+        <v>31</v>
+      </c>
+      <c r="E286" t="s">
+        <v>24</v>
+      </c>
+      <c r="F286" t="s">
+        <v>282</v>
+      </c>
+      <c r="G286" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" t="s">
+        <v>29</v>
+      </c>
+      <c r="C287" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287" t="s">
+        <v>31</v>
+      </c>
+      <c r="E287" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" t="s">
+        <v>284</v>
+      </c>
+      <c r="G287" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" t="s">
+        <v>29</v>
+      </c>
+      <c r="C288" t="s">
+        <v>30</v>
+      </c>
+      <c r="D288" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" t="s">
+        <v>24</v>
+      </c>
+      <c r="F288" t="s">
+        <v>282</v>
+      </c>
+      <c r="G288" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7">
+      <c r="B289" t="s">
+        <v>29</v>
+      </c>
+      <c r="C289" t="s">
+        <v>30</v>
+      </c>
+      <c r="D289" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" t="s">
+        <v>24</v>
+      </c>
+      <c r="F289" t="s">
+        <v>284</v>
+      </c>
+      <c r="G289" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290" t="s">
+        <v>30</v>
+      </c>
+      <c r="D290" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" t="s">
+        <v>282</v>
+      </c>
+      <c r="G290" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" t="s">
+        <v>30</v>
+      </c>
+      <c r="D291" t="s">
+        <v>31</v>
+      </c>
+      <c r="E291" t="s">
+        <v>24</v>
+      </c>
+      <c r="F291" t="s">
+        <v>284</v>
+      </c>
+      <c r="G291" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" t="s">
+        <v>31</v>
+      </c>
+      <c r="E292" t="s">
+        <v>24</v>
+      </c>
+      <c r="F292" t="s">
+        <v>282</v>
+      </c>
+      <c r="G292" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="B293" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293" t="s">
+        <v>24</v>
+      </c>
+      <c r="F293" t="s">
+        <v>284</v>
+      </c>
+      <c r="G293" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="B294" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" t="s">
+        <v>31</v>
+      </c>
+      <c r="E294" t="s">
+        <v>24</v>
+      </c>
+      <c r="F294" t="s">
+        <v>282</v>
+      </c>
+      <c r="G294" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7">
+      <c r="B295" t="s">
+        <v>29</v>
+      </c>
+      <c r="C295" t="s">
+        <v>30</v>
+      </c>
+      <c r="D295" t="s">
+        <v>31</v>
+      </c>
+      <c r="E295" t="s">
+        <v>24</v>
+      </c>
+      <c r="F295" t="s">
+        <v>284</v>
+      </c>
+      <c r="G295" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="B296" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" t="s">
+        <v>36</v>
+      </c>
+      <c r="D296" t="s">
+        <v>37</v>
+      </c>
+      <c r="E296" t="s">
+        <v>24</v>
+      </c>
+      <c r="F296" t="s">
+        <v>364</v>
+      </c>
+      <c r="G296" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="B297" t="s">
+        <v>29</v>
+      </c>
+      <c r="C297" t="s">
+        <v>30</v>
+      </c>
+      <c r="D297" t="s">
+        <v>31</v>
+      </c>
+      <c r="E297" t="s">
+        <v>24</v>
+      </c>
+      <c r="F297" t="s">
+        <v>282</v>
+      </c>
+      <c r="G297" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="B298" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" t="s">
+        <v>30</v>
+      </c>
+      <c r="D298" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" t="s">
+        <v>24</v>
+      </c>
+      <c r="F298" t="s">
+        <v>284</v>
+      </c>
+      <c r="G298" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7">
+      <c r="B299" t="s">
+        <v>29</v>
+      </c>
+      <c r="C299" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" t="s">
+        <v>31</v>
+      </c>
+      <c r="E299" t="s">
+        <v>24</v>
+      </c>
+      <c r="F299" t="s">
+        <v>282</v>
+      </c>
+      <c r="G299" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7">
+      <c r="B300" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" t="s">
+        <v>31</v>
+      </c>
+      <c r="E300" t="s">
+        <v>24</v>
+      </c>
+      <c r="F300" t="s">
+        <v>284</v>
+      </c>
+      <c r="G300" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7">
+      <c r="B301" t="s">
+        <v>35</v>
+      </c>
+      <c r="C301" t="s">
+        <v>36</v>
+      </c>
+      <c r="D301" t="s">
+        <v>37</v>
+      </c>
+      <c r="E301" t="s">
+        <v>24</v>
+      </c>
+      <c r="F301" t="s">
+        <v>364</v>
+      </c>
+      <c r="G301" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7">
+      <c r="B302" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" t="s">
+        <v>24</v>
+      </c>
+      <c r="F302" t="s">
+        <v>282</v>
+      </c>
+      <c r="G302" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="B303" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303" t="s">
+        <v>31</v>
+      </c>
+      <c r="E303" t="s">
+        <v>24</v>
+      </c>
+      <c r="F303" t="s">
+        <v>284</v>
+      </c>
+      <c r="G303" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7">
+      <c r="B304" t="s">
+        <v>35</v>
+      </c>
+      <c r="C304" t="s">
+        <v>36</v>
+      </c>
+      <c r="D304" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" t="s">
+        <v>24</v>
+      </c>
+      <c r="F304" t="s">
+        <v>364</v>
+      </c>
+      <c r="G304" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7">
+      <c r="B305" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305" t="s">
+        <v>30</v>
+      </c>
+      <c r="D305" t="s">
+        <v>31</v>
+      </c>
+      <c r="E305" t="s">
+        <v>24</v>
+      </c>
+      <c r="F305" t="s">
+        <v>282</v>
+      </c>
+      <c r="G305" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7">
+      <c r="B306" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306" t="s">
+        <v>30</v>
+      </c>
+      <c r="D306" t="s">
+        <v>31</v>
+      </c>
+      <c r="E306" t="s">
+        <v>24</v>
+      </c>
+      <c r="F306" t="s">
+        <v>284</v>
+      </c>
+      <c r="G306" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7">
+      <c r="B307" t="s">
+        <v>35</v>
+      </c>
+      <c r="C307" t="s">
+        <v>36</v>
+      </c>
+      <c r="D307" t="s">
+        <v>37</v>
+      </c>
+      <c r="E307" t="s">
+        <v>24</v>
+      </c>
+      <c r="F307" t="s">
+        <v>364</v>
+      </c>
+      <c r="G307" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7">
+      <c r="B308" t="s">
+        <v>29</v>
+      </c>
+      <c r="C308" t="s">
+        <v>30</v>
+      </c>
+      <c r="D308" t="s">
+        <v>31</v>
+      </c>
+      <c r="E308" t="s">
+        <v>24</v>
+      </c>
+      <c r="F308" t="s">
+        <v>282</v>
+      </c>
+      <c r="G308" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7">
+      <c r="B309" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309" t="s">
+        <v>30</v>
+      </c>
+      <c r="D309" t="s">
+        <v>31</v>
+      </c>
+      <c r="E309" t="s">
+        <v>24</v>
+      </c>
+      <c r="F309" t="s">
+        <v>284</v>
+      </c>
+      <c r="G309" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7">
+      <c r="B310" t="s">
+        <v>35</v>
+      </c>
+      <c r="C310" t="s">
+        <v>36</v>
+      </c>
+      <c r="D310" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310" t="s">
+        <v>24</v>
+      </c>
+      <c r="F310" t="s">
+        <v>364</v>
+      </c>
+      <c r="G310" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7">
+      <c r="B311" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311" t="s">
+        <v>30</v>
+      </c>
+      <c r="D311" t="s">
+        <v>31</v>
+      </c>
+      <c r="E311" t="s">
+        <v>24</v>
+      </c>
+      <c r="F311" t="s">
+        <v>282</v>
+      </c>
+      <c r="G311" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7">
+      <c r="B312" t="s">
+        <v>29</v>
+      </c>
+      <c r="C312" t="s">
+        <v>30</v>
+      </c>
+      <c r="D312" t="s">
+        <v>31</v>
+      </c>
+      <c r="E312" t="s">
+        <v>24</v>
+      </c>
+      <c r="F312" t="s">
+        <v>284</v>
+      </c>
+      <c r="G312" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7">
+      <c r="B313" t="s">
+        <v>35</v>
+      </c>
+      <c r="C313" t="s">
+        <v>36</v>
+      </c>
+      <c r="D313" t="s">
+        <v>37</v>
+      </c>
+      <c r="E313" t="s">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>364</v>
+      </c>
+      <c r="G313" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7">
+      <c r="B314" t="s">
+        <v>29</v>
+      </c>
+      <c r="C314" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" t="s">
+        <v>31</v>
+      </c>
+      <c r="E314" t="s">
+        <v>24</v>
+      </c>
+      <c r="F314" t="s">
+        <v>282</v>
+      </c>
+      <c r="G314" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7">
+      <c r="B315" t="s">
+        <v>29</v>
+      </c>
+      <c r="C315" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315" t="s">
+        <v>31</v>
+      </c>
+      <c r="E315" t="s">
+        <v>24</v>
+      </c>
+      <c r="F315" t="s">
+        <v>284</v>
+      </c>
+      <c r="G315" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7">
+      <c r="B316" t="s">
+        <v>35</v>
+      </c>
+      <c r="C316" t="s">
+        <v>36</v>
+      </c>
+      <c r="D316" t="s">
+        <v>37</v>
+      </c>
+      <c r="E316" t="s">
+        <v>24</v>
+      </c>
+      <c r="F316" t="s">
+        <v>364</v>
+      </c>
+      <c r="G316" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" t="s">
+        <v>29</v>
+      </c>
+      <c r="C317" t="s">
+        <v>30</v>
+      </c>
+      <c r="D317" t="s">
+        <v>31</v>
+      </c>
+      <c r="E317" t="s">
+        <v>24</v>
+      </c>
+      <c r="F317" t="s">
+        <v>282</v>
+      </c>
+      <c r="G317" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" t="s">
+        <v>29</v>
+      </c>
+      <c r="C318" t="s">
+        <v>30</v>
+      </c>
+      <c r="D318" t="s">
+        <v>31</v>
+      </c>
+      <c r="E318" t="s">
+        <v>24</v>
+      </c>
+      <c r="F318" t="s">
+        <v>284</v>
+      </c>
+      <c r="G318" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>31</v>
+      </c>
+      <c r="E319" t="s">
+        <v>24</v>
+      </c>
+      <c r="F319" t="s">
+        <v>282</v>
+      </c>
+      <c r="G319" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" t="s">
+        <v>29</v>
+      </c>
+      <c r="C320" t="s">
+        <v>30</v>
+      </c>
+      <c r="D320" t="s">
+        <v>31</v>
+      </c>
+      <c r="E320" t="s">
+        <v>24</v>
+      </c>
+      <c r="F320" t="s">
+        <v>284</v>
+      </c>
+      <c r="G320" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" t="s">
+        <v>29</v>
+      </c>
+      <c r="C321" t="s">
+        <v>30</v>
+      </c>
+      <c r="D321" t="s">
+        <v>31</v>
+      </c>
+      <c r="E321" t="s">
+        <v>24</v>
+      </c>
+      <c r="F321" t="s">
+        <v>390</v>
+      </c>
+      <c r="G321" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7">
+      <c r="B322" t="s">
+        <v>29</v>
+      </c>
+      <c r="C322" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322" t="s">
+        <v>31</v>
+      </c>
+      <c r="E322" t="s">
+        <v>24</v>
+      </c>
+      <c r="F322" t="s">
+        <v>284</v>
+      </c>
+      <c r="G322" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7">
+      <c r="B323" t="s">
+        <v>29</v>
+      </c>
+      <c r="C323" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323" t="s">
+        <v>31</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7">
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7">
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7">
+      <c r="B326" t="s">
+        <v>29</v>
+      </c>
+      <c r="C326" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" t="s">
+        <v>31</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7">
+      <c r="B327" t="s">
+        <v>29</v>
+      </c>
+      <c r="C327" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" t="s">
+        <v>31</v>
+      </c>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7">
+      <c r="B328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C328" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" t="s">
+        <v>31</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7">
+      <c r="B329" t="s">
+        <v>29</v>
+      </c>
+      <c r="C329" t="s">
+        <v>30</v>
+      </c>
+      <c r="D329" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7">
+      <c r="B330" t="s">
+        <v>29</v>
+      </c>
+      <c r="C330" t="s">
+        <v>30</v>
+      </c>
+      <c r="D330" t="s">
+        <v>31</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7">
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7">
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7">
+      <c r="B333" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" t="s">
+        <v>30</v>
+      </c>
+      <c r="D333" t="s">
+        <v>31</v>
+      </c>
+      <c r="E333" t="s">
+        <v>24</v>
+      </c>
+      <c r="F333" t="s">
+        <v>269</v>
+      </c>
+      <c r="G333" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7">
+      <c r="B334" t="s">
+        <v>35</v>
+      </c>
+      <c r="C334" t="s">
+        <v>36</v>
+      </c>
+      <c r="D334" t="s">
+        <v>37</v>
+      </c>
+      <c r="E334" t="s">
+        <v>24</v>
+      </c>
+      <c r="F334" t="s">
+        <v>404</v>
+      </c>
+      <c r="G334" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7">
+      <c r="B335" t="s">
+        <v>406</v>
+      </c>
+      <c r="C335" t="s">
+        <v>407</v>
+      </c>
+      <c r="D335" t="s">
+        <v>408</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" t="s">
+        <v>409</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:G6">
+  <conditionalFormatting sqref="A4:G336">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
